--- a/PaperRecurrence/2013D/1 数据预处理/0908001西安插值回归好.xlsx
+++ b/PaperRecurrence/2013D/1 数据预处理/0908001西安插值回归好.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="3750" windowWidth="19395" windowHeight="7575" tabRatio="967" activeTab="12"/>
+    <workbookView xWindow="600" yWindow="4200" windowWidth="19395" windowHeight="7575" tabRatio="967"/>
   </bookViews>
   <sheets>
     <sheet name="高压开关厂1" sheetId="4" r:id="rId1"/>
@@ -1553,7 +1553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1596,6 +1596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1611,7 +1617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1683,6 +1689,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1993,8 +2005,8 @@
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2626,35 +2638,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="24">
         <v>36</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="24">
         <v>165</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="24">
         <v>159</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="24">
         <v>87</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="24">
         <v>35</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="24">
         <v>55</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="24">
         <v>112</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5186,35 +5198,35 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="24">
         <v>132</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="24">
         <v>140</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="24">
         <v>205</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="24">
         <v>109</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="24">
         <v>8</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G100" s="24">
         <v>8</v>
       </c>
-      <c r="H100" s="6">
+      <c r="H100" s="24">
         <v>329</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I100" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J100" s="24" t="s">
         <v>97</v>
       </c>
     </row>
@@ -17425,8 +17437,8 @@
   </sheetPr>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18068,35 +18080,35 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="24">
         <v>26</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="24">
         <v>32</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="24">
         <v>119</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="24">
         <v>75</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="24">
         <v>28</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="24">
         <v>35</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="24">
         <v>94</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -20719,36 +20731,36 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6" t="s">
+    <row r="100" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="24"/>
+      <c r="B100" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="24">
         <v>88</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="24">
         <v>102</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="24">
         <v>172</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="24">
         <v>123</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G100" s="24">
         <v>5</v>
       </c>
-      <c r="H100" s="6">
+      <c r="H100" s="24">
         <v>7</v>
       </c>
-      <c r="I100" s="6">
+      <c r="I100" s="24">
         <v>300</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J100" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="K100" s="24" t="s">
         <v>97</v>
       </c>
     </row>
